--- a/medicine/Enfance/Bradford_Morrow/Bradford_Morrow.xlsx
+++ b/medicine/Enfance/Bradford_Morrow/Bradford_Morrow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bradford Morrow, né le 8 avril 1951 à Baltimore, est un écrivain américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né au Maryland, il est élevé dans la petite ville de Littleton au Colorado. En 1966, il fait partie d'un petit groupe d'élèves sélectionnés pour un voyage humanitaire au Honduras. Les années suivantes, il participe à un voyage scolaire parrainé par le American Field Service qui le conduit à Coni, en Italie. Il séjourne ultérieurement en France et en Angleterre.
 Après l'obtention en 1972 de son baccalauréat universitaire en littérature anglaise de l'Université du Colorado à Boulder, avec une mention du Phi Beta Kappa, il poursuit ses études à l'Université Yale, puis s'installe à New York. Il s'intéresse alors à l'œuvre de l'artiste-peintre, écrivain et critique Wyndham Lewis.
@@ -549,70 +563,292 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Trilogie New Mexico
-Trinity Fields (1995) - finaliste pour Los Angeles Times Book Award 1995
-Ariel’s Crossing (2002)
-Trilogie Will
-The Forgers (2014) Publié en français sous le titre Duel de faussaires, Paris, Éditions du Seuil, coll. « Seuil policiers », 2017  (ISBN 978-2-0212-4299-7)
-The Forger’s Daughter (2020)
-Autres romans
-Come Sunday (1988)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Trilogie New Mexico</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Trinity Fields (1995) - finaliste pour Los Angeles Times Book Award 1995
+Ariel’s Crossing (2002)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Trilogie Will</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Forgers (2014) Publié en français sous le titre Duel de faussaires, Paris, Éditions du Seuil, coll. « Seuil policiers », 2017  (ISBN 978-2-0212-4299-7)
+The Forger’s Daughter (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Come Sunday (1988)
 The Almanac Branch (1991) - finaliste pour le prix PEN/Faulkner 1992
 Giovanni's Gift (1997) Publié en français sous le titre Le Legs de Giovanni, Paris, Calmann-Lévy, 1998  (ISBN 2-7021-2848-3)
-The Diviner's Tale (2011)
-Recueils de nouvelles
-Fall of the Birds (2011)
+The Diviner's Tale (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Fall of the Birds (2011)
 The Uninnocent (2011)
-The Nature of My Inheritance (2014)
-Nouvelles
-A Different Kind of Arbor (1998)
+The Nature of My Inheritance (2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A Different Kind of Arbor (1998)
 Amazing Grace (2002)
 Lush (2003) - O'Henry Prize
 The Hoarder (2006)
 Gardener of Heart (2006)
 The Enigma of Grover's Mill (2011)
-The Uninnocent (2013)
-Recueils de poésie
-Passing From the Provinces (1981)
+The Uninnocent (2013)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueils de poésie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Passing From the Provinces (1981)
 Posthumes (1982)
 Danae's Progress (1982)
 The Preferences (1983)
-After a Charme (1984)
-Ouvrages de littérature d'enfance et de jeunesse
-A Bestiary (1991)
+After a Charme (1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>A Bestiary (1991)
 Didn’t Didn’t Do It (2007)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bradford_Morrow</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bradford_Morrow</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bradford_Morrow</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>PEN/Nora Magid Award for Magazine Editing (en) 2007
-Bourse Guggenheim 2007[1]</t>
+Bourse Guggenheim 2007</t>
         </is>
       </c>
     </row>
